--- a/Parameter experimentation data.xlsx
+++ b/Parameter experimentation data.xlsx
@@ -8,27 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceccarelli/Google Drive/REU/REU-Drone-Swarm-Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070DE861-AA96-E24B-822D-9B2B3A64DC95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D75453E-12B8-E246-A0AD-A760D0743F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D9324A89-EF1B-2742-8BF0-637F7EBB650A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{D9324A89-EF1B-2742-8BF0-637F7EBB650A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$5:$B$19</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$5:$E$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$5:$B$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$5:$E$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$5:$B$19</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$5:$E$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$5:$B$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$E$5:$E$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$5:$B$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$5:$E$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$5:$B$19</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$5:$E$19</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Population Size</t>
   </si>
@@ -57,9 +43,6 @@
   </si>
   <si>
     <t>mut. Rate</t>
-  </si>
-  <si>
-    <t>Inheritance between runs denominator constant</t>
   </si>
   <si>
     <t>constant</t>
@@ -139,32 +122,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">inheritance between runs denominator constant of 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is the best option according to this experiment.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The previoiusly set criteria proved inappropriate for determining that a </t>
     </r>
     <r>
@@ -198,13 +155,66 @@
   <si>
     <t>The fastest runtime is found at an inheriance between runs denominator constant of 2</t>
   </si>
+  <si>
+    <t>Inheritance benefits</t>
+  </si>
+  <si>
+    <t>pop size/2</t>
+  </si>
+  <si>
+    <t>0 (none)</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Inheritance between runs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">inheritance between runs of 250 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(assuming a population size of 500) the best option according to this experiment. This means that the denominator for the equation should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -362,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -373,8 +383,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -386,11 +396,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,6 +1178,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9692-8C48-B811-533B51F582A4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -1787,59 +1805,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$5:$Q$19</c:f>
+              <c:f>Sheet1!$Q$8:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>28.530999999999999</c:v>
                 </c:pt>
@@ -1875,15 +1893,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>23.387</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50.015000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>66.099000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>48.308999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,19 +1941,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,19 +1965,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>56.313666666666677</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>31.129000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.010666666666665</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>21.331999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>35.300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54.80766666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5572,10 +5581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63A9D61-3F65-DF48-ABDD-6756A70D5827}">
-  <dimension ref="B3:X47"/>
+  <dimension ref="B3:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5594,13 +5603,13 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="N3" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="T3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -5617,10 +5626,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -5632,13 +5641,13 @@
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="N4" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>2</v>
@@ -5647,13 +5656,13 @@
         <v>3</v>
       </c>
       <c r="Q4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="T4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>2</v>
@@ -5662,10 +5671,10 @@
         <v>3</v>
       </c>
       <c r="W4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
@@ -5695,17 +5704,17 @@
         <v>35.201000000000001</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="N5" s="8">
-        <v>4</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="P5" s="9">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>28.530999999999999</v>
+      <c r="P5" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>62.148000000000003</v>
       </c>
       <c r="R5" s="13"/>
       <c r="T5" s="8">
@@ -5723,7 +5732,7 @@
       <c r="X5" s="13"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>300</v>
       </c>
       <c r="C6" s="3">
@@ -5736,7 +5745,7 @@
         <v>13.558</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I6" s="3">
@@ -5749,20 +5758,20 @@
         <v>21.175999999999998</v>
       </c>
       <c r="L6" s="13"/>
-      <c r="N6" s="22">
-        <v>4</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="21">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
         <v>2</v>
       </c>
-      <c r="P6" s="9">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>31.664000000000001</v>
+      <c r="P6" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>54.343000000000004</v>
       </c>
       <c r="R6" s="13"/>
-      <c r="T6" s="22">
+      <c r="T6" s="21">
         <v>4</v>
       </c>
       <c r="U6" s="9">
@@ -5777,7 +5786,7 @@
       <c r="X6" s="13"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>300</v>
       </c>
       <c r="C7" s="4">
@@ -5793,7 +5802,7 @@
         <f>AVERAGE(E5:E7)</f>
         <v>16.274000000000001</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I7" s="4">
@@ -5809,23 +5818,23 @@
         <f>AVERAGE(K5:K7)</f>
         <v>25.74733333333333</v>
       </c>
-      <c r="N7" s="23">
-        <v>4</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
         <v>3</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <v>8</v>
       </c>
-      <c r="Q7" s="7">
-        <v>33.192</v>
+      <c r="Q7" s="26">
+        <v>52.45</v>
       </c>
       <c r="R7" s="16">
         <f>AVERAGE(Q5:Q7)</f>
-        <v>31.129000000000001</v>
-      </c>
-      <c r="T7" s="23">
+        <v>56.313666666666677</v>
+      </c>
+      <c r="T7" s="22">
         <v>4</v>
       </c>
       <c r="U7" s="7">
@@ -5870,7 +5879,7 @@
       </c>
       <c r="L8" s="13"/>
       <c r="N8" s="8">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="O8" s="9">
         <v>1</v>
@@ -5879,7 +5888,7 @@
         <v>7</v>
       </c>
       <c r="Q8" s="9">
-        <v>21.606999999999999</v>
+        <v>28.530999999999999</v>
       </c>
       <c r="R8" s="13"/>
       <c r="T8" s="19">
@@ -5897,7 +5906,7 @@
       <c r="X8" s="13"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>400</v>
       </c>
       <c r="C9" s="3">
@@ -5910,7 +5919,7 @@
         <v>28.393000000000001</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>0.01</v>
       </c>
       <c r="I9" s="3">
@@ -5923,8 +5932,8 @@
         <v>28.283999999999999</v>
       </c>
       <c r="L9" s="13"/>
-      <c r="N9" s="22">
-        <v>3</v>
+      <c r="N9" s="21">
+        <v>125</v>
       </c>
       <c r="O9" s="9">
         <v>2</v>
@@ -5933,10 +5942,10 @@
         <v>7</v>
       </c>
       <c r="Q9" s="9">
-        <v>21.917999999999999</v>
+        <v>31.664000000000001</v>
       </c>
       <c r="R9" s="13"/>
-      <c r="T9" s="22">
+      <c r="T9" s="21">
         <v>3</v>
       </c>
       <c r="U9" s="9">
@@ -5951,7 +5960,7 @@
       <c r="X9" s="13"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>400</v>
       </c>
       <c r="C10" s="4">
@@ -5967,7 +5976,7 @@
         <f>AVERAGE(E8:E10)</f>
         <v>23.608333333333334</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>0.01</v>
       </c>
       <c r="I10" s="4">
@@ -5983,23 +5992,23 @@
         <f>AVERAGE(K8:K10)</f>
         <v>24.596</v>
       </c>
-      <c r="N10" s="23">
-        <v>3</v>
+      <c r="N10" s="22">
+        <v>125</v>
       </c>
       <c r="O10" s="7">
         <v>3</v>
       </c>
       <c r="P10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="7">
-        <v>22.507000000000001</v>
-      </c>
-      <c r="R10" s="17">
+        <v>33.192</v>
+      </c>
+      <c r="R10" s="16">
         <f>AVERAGE(Q8:Q10)</f>
-        <v>22.010666666666665</v>
-      </c>
-      <c r="T10" s="23">
+        <v>31.129000000000001</v>
+      </c>
+      <c r="T10" s="22">
         <v>3</v>
       </c>
       <c r="U10" s="7">
@@ -6043,8 +6052,8 @@
         <v>21.817</v>
       </c>
       <c r="L11" s="13"/>
-      <c r="N11" s="19">
-        <v>2</v>
+      <c r="N11" s="8">
+        <v>166</v>
       </c>
       <c r="O11" s="9">
         <v>1</v>
@@ -6053,7 +6062,7 @@
         <v>7</v>
       </c>
       <c r="Q11" s="9">
-        <v>20.891999999999999</v>
+        <v>21.606999999999999</v>
       </c>
       <c r="R11" s="13"/>
       <c r="T11" s="8">
@@ -6071,7 +6080,7 @@
       <c r="X11" s="13"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>500</v>
       </c>
       <c r="C12" s="3">
@@ -6084,7 +6093,7 @@
         <v>27.587</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>0.02</v>
       </c>
       <c r="I12" s="3">
@@ -6097,8 +6106,8 @@
         <v>48.712000000000003</v>
       </c>
       <c r="L12" s="13"/>
-      <c r="N12" s="22">
-        <v>2</v>
+      <c r="N12" s="21">
+        <v>166</v>
       </c>
       <c r="O12" s="9">
         <v>2</v>
@@ -6106,11 +6115,11 @@
       <c r="P12" s="9">
         <v>7</v>
       </c>
-      <c r="Q12" s="11">
-        <v>22.088999999999999</v>
+      <c r="Q12" s="9">
+        <v>21.917999999999999</v>
       </c>
       <c r="R12" s="13"/>
-      <c r="T12" s="22">
+      <c r="T12" s="21">
         <v>2</v>
       </c>
       <c r="U12" s="9">
@@ -6125,7 +6134,7 @@
       <c r="X12" s="13"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>500</v>
       </c>
       <c r="C13" s="4">
@@ -6141,7 +6150,7 @@
         <f>AVERAGE(E11:E13)</f>
         <v>27.90433333333333</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>0.02</v>
       </c>
       <c r="I13" s="4">
@@ -6157,8 +6166,8 @@
         <f>AVERAGE(K11:K13)</f>
         <v>34.979999999999997</v>
       </c>
-      <c r="N13" s="23">
-        <v>2</v>
+      <c r="N13" s="22">
+        <v>166</v>
       </c>
       <c r="O13" s="7">
         <v>3</v>
@@ -6167,13 +6176,13 @@
         <v>7</v>
       </c>
       <c r="Q13" s="7">
-        <v>21.015000000000001</v>
+        <v>22.507000000000001</v>
       </c>
       <c r="R13" s="17">
         <f>AVERAGE(Q11:Q13)</f>
-        <v>21.331999999999997</v>
-      </c>
-      <c r="T13" s="23">
+        <v>22.010666666666665</v>
+      </c>
+      <c r="T13" s="22">
         <v>2</v>
       </c>
       <c r="U13" s="7">
@@ -6217,17 +6226,17 @@
         <v>29.442</v>
       </c>
       <c r="L14" s="13"/>
-      <c r="N14" s="8">
-        <v>1</v>
+      <c r="N14" s="19">
+        <v>250</v>
       </c>
       <c r="O14" s="9">
         <v>1</v>
       </c>
       <c r="P14" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="9">
-        <v>47.938000000000002</v>
+        <v>20.891999999999999</v>
       </c>
       <c r="R14" s="13"/>
       <c r="T14" s="8">
@@ -6245,7 +6254,7 @@
       <c r="X14" s="13"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>600</v>
       </c>
       <c r="C15" s="3">
@@ -6258,7 +6267,7 @@
         <v>30.405000000000001</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>0.05</v>
       </c>
       <c r="I15" s="3">
@@ -6271,20 +6280,20 @@
         <v>28.576000000000001</v>
       </c>
       <c r="L15" s="13"/>
-      <c r="N15" s="22">
-        <v>1</v>
+      <c r="N15" s="21">
+        <v>250</v>
       </c>
       <c r="O15" s="9">
         <v>2</v>
       </c>
       <c r="P15" s="9">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>34.575000000000003</v>
+        <v>7</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>22.088999999999999</v>
       </c>
       <c r="R15" s="13"/>
-      <c r="T15" s="22">
+      <c r="T15" s="21">
         <v>1</v>
       </c>
       <c r="U15" s="9">
@@ -6299,7 +6308,7 @@
       <c r="X15" s="13"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>600</v>
       </c>
       <c r="C16" s="4">
@@ -6315,7 +6324,7 @@
         <f>AVERAGE(E14:E16)</f>
         <v>31.753333333333334</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>0.05</v>
       </c>
       <c r="I16" s="4">
@@ -6331,8 +6340,8 @@
         <f>AVERAGE(K14:K16)</f>
         <v>26.312999999999999</v>
       </c>
-      <c r="N16" s="23">
-        <v>1</v>
+      <c r="N16" s="22">
+        <v>250</v>
       </c>
       <c r="O16" s="7">
         <v>3</v>
@@ -6341,13 +6350,13 @@
         <v>7</v>
       </c>
       <c r="Q16" s="7">
-        <v>23.387</v>
-      </c>
-      <c r="R16" s="16">
+        <v>21.015000000000001</v>
+      </c>
+      <c r="R16" s="17">
         <f>AVERAGE(Q14:Q16)</f>
-        <v>35.300000000000004</v>
-      </c>
-      <c r="T16" s="23">
+        <v>21.331999999999997</v>
+      </c>
+      <c r="T16" s="22">
         <v>1</v>
       </c>
       <c r="U16" s="7">
@@ -6392,16 +6401,16 @@
       </c>
       <c r="L17" s="13"/>
       <c r="N17" s="8">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="O17" s="9">
         <v>1</v>
       </c>
       <c r="P17" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="9">
-        <v>50.015000000000001</v>
+        <v>47.938000000000002</v>
       </c>
       <c r="R17" s="13"/>
       <c r="T17" s="8">
@@ -6419,7 +6428,7 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>700</v>
       </c>
       <c r="C18" s="3">
@@ -6432,7 +6441,7 @@
         <v>51.613</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <v>0.1</v>
       </c>
       <c r="I18" s="3">
@@ -6445,20 +6454,20 @@
         <v>43.441000000000003</v>
       </c>
       <c r="L18" s="13"/>
-      <c r="N18" s="22">
-        <v>0.5</v>
+      <c r="N18" s="21">
+        <v>500</v>
       </c>
       <c r="O18" s="9">
         <v>2</v>
       </c>
       <c r="P18" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q18" s="9">
-        <v>66.099000000000004</v>
+        <v>34.575000000000003</v>
       </c>
       <c r="R18" s="13"/>
-      <c r="T18" s="22">
+      <c r="T18" s="21">
         <v>0.5</v>
       </c>
       <c r="U18" s="9">
@@ -6473,7 +6482,7 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>700</v>
       </c>
       <c r="C19" s="4">
@@ -6489,7 +6498,7 @@
         <f>AVERAGE(E17:E19)</f>
         <v>39.710333333333331</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>0.1</v>
       </c>
       <c r="I19" s="4">
@@ -6505,23 +6514,23 @@
         <f>AVERAGE(K17:K19)</f>
         <v>40.866999999999997</v>
       </c>
-      <c r="N19" s="23">
-        <v>0.5</v>
+      <c r="N19" s="22">
+        <v>500</v>
       </c>
       <c r="O19" s="7">
         <v>3</v>
       </c>
       <c r="P19" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="7">
-        <v>48.308999999999997</v>
+        <v>23.387</v>
       </c>
       <c r="R19" s="16">
         <f>AVERAGE(Q17:Q19)</f>
-        <v>54.80766666666667</v>
-      </c>
-      <c r="T19" s="23">
+        <v>35.300000000000004</v>
+      </c>
+      <c r="T19" s="22">
         <v>0.5</v>
       </c>
       <c r="U19" s="7">
@@ -6538,336 +6547,454 @@
         <v>167.65400000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="H21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="N21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="T21" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
+    <row r="21" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="N21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="T21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
     </row>
     <row r="22" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="N22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="T22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="N22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="T22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
     </row>
     <row r="23" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
+    <row r="24" spans="2:24" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
     </row>
-    <row r="25" spans="2:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="H25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="N25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="T25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
+    <row r="25" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="H25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="N25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="T25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
     </row>
     <row r="26" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="H26" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="H26" s="20" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="N26" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="T26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="N26" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="T26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
+    <row r="29" spans="2:24" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="N44" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
+    <row r="44" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
     </row>
     <row r="45" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="B45" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
       <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>8</v>
+      </c>
+      <c r="E51" s="24">
+        <v>38.18</v>
+      </c>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="21">
+        <v>300</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3">
+        <v>30.356999999999999</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="22">
+        <v>300</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4">
+        <v>24.748999999999999</v>
+      </c>
+      <c r="F53" s="17">
+        <f>AVERAGE(E51:E53)</f>
+        <v>31.095333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3">
+        <v>62.148000000000003</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="21">
+        <v>400</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3">
+        <v>54.343000000000004</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="22">
+        <v>400</v>
+      </c>
+      <c r="C56" s="4">
+        <v>3</v>
+      </c>
+      <c r="D56" s="4">
+        <v>8</v>
+      </c>
+      <c r="E56" s="26">
+        <v>52.45</v>
+      </c>
+      <c r="F56" s="16">
+        <f>AVERAGE(E54:E56)</f>
+        <v>56.313666666666677</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R23"/>
+    <mergeCell ref="N26:R27"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L23"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="H26:L27"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B45:F46"/>
     <mergeCell ref="N44:R45"/>
     <mergeCell ref="T22:X23"/>
     <mergeCell ref="T26:X30"/>
     <mergeCell ref="B22:F23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="H26:L27"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R23"/>
-    <mergeCell ref="N26:R27"/>
-    <mergeCell ref="T21:X21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Parameter experimentation data.xlsx
+++ b/Parameter experimentation data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceccarelli/Google Drive/REU/REU-Drone-Swarm-Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D75453E-12B8-E246-A0AD-A760D0743F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC67072-1C66-254E-9054-AD6DF389CC06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{D9324A89-EF1B-2742-8BF0-637F7EBB650A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="18000" xr2:uid="{D9324A89-EF1B-2742-8BF0-637F7EBB650A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,12 +398,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,7 +1129,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>scatter</c:v>
+            <c:v>Scatter of Data Points</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1303,7 +1303,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>average line</c:v>
+            <c:v>Average Trendline</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1647,6 +1647,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5583,8 +5614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63A9D61-3F65-DF48-ABDD-6756A70D5827}">
   <dimension ref="B3:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:R19"/>
+    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="215" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5704,7 +5735,7 @@
         <v>35.201000000000001</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <v>0</v>
       </c>
       <c r="O5" s="3">
@@ -5827,7 +5858,7 @@
       <c r="P7" s="4">
         <v>8</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>52.45</v>
       </c>
       <c r="R7" s="16">
@@ -6548,86 +6579,86 @@
       </c>
     </row>
     <row r="21" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="H21" s="23" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="H21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="N21" s="23" t="s">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="N21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="T21" s="23" t="s">
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="T21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
     </row>
     <row r="22" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="H22" s="23" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="H22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="N22" s="23" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="N22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="T22" s="23" t="s">
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="T22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
     </row>
     <row r="23" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
     </row>
     <row r="24" spans="2:24" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
@@ -6682,56 +6713,56 @@
       <c r="X25" s="20"/>
     </row>
     <row r="26" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="H26" s="23" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="H26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="N26" s="23" t="s">
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="N26" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="T26" s="23" t="s">
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="T26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="20"/>
@@ -6749,11 +6780,11 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
     </row>
     <row r="29" spans="2:24" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
@@ -6771,11 +6802,11 @@
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="20"/>
@@ -6793,11 +6824,11 @@
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
@@ -6822,37 +6853,37 @@
       <c r="X31" s="20"/>
     </row>
     <row r="44" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N44" s="23" t="s">
+      <c r="N44" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
     </row>
     <row r="45" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
       <c r="H45" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="20"/>
@@ -6893,7 +6924,7 @@
       <c r="D51" s="3">
         <v>8</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <v>38.18</v>
       </c>
       <c r="F51" s="13"/>
@@ -6932,7 +6963,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="3">
@@ -6971,7 +7002,7 @@
       <c r="D56" s="4">
         <v>8</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="25">
         <v>52.45</v>
       </c>
       <c r="F56" s="16">
@@ -6981,20 +7012,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="H26:L27"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B45:F46"/>
+    <mergeCell ref="N44:R45"/>
+    <mergeCell ref="B22:F23"/>
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="N22:R23"/>
     <mergeCell ref="N26:R27"/>
     <mergeCell ref="T21:X21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="H22:L23"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="H26:L27"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B45:F46"/>
-    <mergeCell ref="N44:R45"/>
     <mergeCell ref="T22:X23"/>
     <mergeCell ref="T26:X30"/>
-    <mergeCell ref="B22:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Parameter experimentation data.xlsx
+++ b/Parameter experimentation data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceccarelli/Google Drive/REU/REU-Drone-Swarm-Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC67072-1C66-254E-9054-AD6DF389CC06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64790528-15D3-D34A-86F7-8532027CA996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="18000" xr2:uid="{D9324A89-EF1B-2742-8BF0-637F7EBB650A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18560" windowHeight="16440" xr2:uid="{D9324A89-EF1B-2742-8BF0-637F7EBB650A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Average with lines</c:v>
+            <c:v>Average Trendline</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -795,7 +795,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> size</a:t>
+                  <a:t> Size</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1001,6 +1001,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1760684690009059E-2"/>
+          <c:y val="0.12436284119121846"/>
+          <c:w val="0.76358184664799233"/>
+          <c:h val="6.5398492789852325E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1129,7 +1170,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Scatter of Data Points</c:v>
+            <c:v>Scatter Plot</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1441,7 +1482,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> rate</a:t>
+                  <a:t> Rate</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1761,7 +1802,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Between Runs Denominator Constant vs Runtime</a:t>
+              <a:t> Between Run vs Runtime</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1805,7 +1846,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>scatter</c:v>
+            <c:v>Scatter Plot</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1939,7 +1980,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>average line</c:v>
+            <c:v>Average Trendline</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2077,7 +2118,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Runs Denominator Constant</a:t>
+                  <a:t> Runs</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2283,6 +2324,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2411,7 +2483,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>scatter</c:v>
+            <c:v>Scatter Plot</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2554,7 +2626,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>average line</c:v>
+            <c:v>Average Trendline</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2898,6 +2970,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5281,13 +5384,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>4233</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>12699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>427566</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>35607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5614,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63A9D61-3F65-DF48-ABDD-6756A70D5827}">
   <dimension ref="B3:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="215" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="223" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7012,6 +7115,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L23"/>
+    <mergeCell ref="T22:X23"/>
+    <mergeCell ref="T26:X30"/>
     <mergeCell ref="B26:F27"/>
     <mergeCell ref="H26:L27"/>
     <mergeCell ref="B21:F21"/>
@@ -7021,11 +7129,6 @@
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="N22:R23"/>
     <mergeCell ref="N26:R27"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="T22:X23"/>
-    <mergeCell ref="T26:X30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
